--- a/dataproject/data.xlsx
+++ b/dataproject/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mielarsen/Dropbox/8. semester/Introduction to numerical analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarajensen/Desktop/Introduction to Programming and Numerical Analysis /projects-2023-mc/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133FF089-2BDE-FC4C-BE93-6D0E9C74562C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF17098-5611-DE41-B8C5-48DBE3357B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3500" windowWidth="25640" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="740" windowWidth="23580" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataa" sheetId="1" r:id="rId1"/>
@@ -127,22 +127,13 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>Korea</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
     <t xml:space="preserve">Lithuania </t>
   </si>
   <si>
-    <t xml:space="preserve">Luxemborg </t>
-  </si>
-  <si>
     <t>Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neatherlands </t>
   </si>
   <si>
     <t xml:space="preserve">New Zealand </t>
@@ -155,9 +146,6 @@
   </si>
   <si>
     <t>Portugal</t>
-  </si>
-  <si>
-    <t>Slovak Republic</t>
   </si>
   <si>
     <t>Slovenia</t>
@@ -203,6 +191,18 @@
   </si>
   <si>
     <t>QGDP</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands </t>
+  </si>
+  <si>
+    <t>Slovakia</t>
   </si>
 </sst>
 </file>
@@ -691,48 +691,48 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Farve6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Farve6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Farve6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Advarselstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bemærk!" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Beregning" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Farve1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Farve2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Farve3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Farve4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Farve5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Farve6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Kontrollér celle" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Overskrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Sammenkædet celle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Ugyldig" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1046,45 +1046,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N343"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="82" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>59</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -8865,31 +8868,34 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>10.26</v>
+        <v>10.77</v>
       </c>
       <c r="E182">
-        <v>10</v>
+        <v>11.07</v>
       </c>
       <c r="F182">
-        <v>10.45</v>
+        <v>10.43</v>
       </c>
       <c r="G182">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="H182">
-        <v>-1.4</v>
+        <v>0.2</v>
+      </c>
+      <c r="I182">
+        <v>-13.4</v>
       </c>
       <c r="J182">
-        <v>0.04</v>
+        <v>2.86</v>
       </c>
       <c r="K182">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="L182">
         <v>1</v>
       </c>
       <c r="M182">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N182">
         <v>1</v>
@@ -8906,31 +8912,34 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>9.7899999999999991</v>
+        <v>11.47</v>
       </c>
       <c r="E183">
-        <v>10.050000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="F183">
-        <v>9.6</v>
+        <v>11.93</v>
       </c>
       <c r="G183">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>3.7</v>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I183">
+        <v>-19</v>
       </c>
       <c r="J183">
-        <v>0.3</v>
+        <v>2.21</v>
       </c>
       <c r="K183">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="L183">
         <v>1</v>
       </c>
       <c r="M183">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N183">
         <v>2</v>
@@ -8944,37 +8953,37 @@
         <v>9</v>
       </c>
       <c r="C184">
-        <v>186.72</v>
-      </c>
-      <c r="D184">
-        <v>9.6199999999999992</v>
+        <v>213.18</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0.6</v>
       </c>
       <c r="E184">
-        <v>10.18</v>
+        <v>16.27</v>
       </c>
       <c r="F184">
-        <v>9.1999999999999993</v>
+        <v>12.6</v>
       </c>
       <c r="G184">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H184">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="I184">
-        <v>7781.3</v>
+        <v>28.5</v>
       </c>
       <c r="J184">
-        <v>1.18</v>
+        <v>1.94</v>
       </c>
       <c r="K184">
-        <v>-1.3</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="L184">
         <v>1</v>
       </c>
       <c r="M184">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N184">
         <v>3</v>
@@ -8988,37 +8997,37 @@
         <v>10</v>
       </c>
       <c r="C185">
-        <v>63.68</v>
+        <v>385.66</v>
       </c>
       <c r="D185">
-        <v>10.94</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E185">
-        <v>11.24</v>
+        <v>19.2</v>
       </c>
       <c r="F185">
-        <v>10.73</v>
+        <v>14.07</v>
       </c>
       <c r="G185">
-        <v>-19.3</v>
+        <v>-11.8</v>
       </c>
       <c r="H185">
-        <v>-0.9</v>
+        <v>-5.3</v>
       </c>
       <c r="I185">
-        <v>3524.3</v>
+        <v>83.2</v>
       </c>
       <c r="J185">
-        <v>-0.09</v>
+        <v>-0.42</v>
       </c>
       <c r="K185">
-        <v>-3.2</v>
+        <v>-7.3</v>
       </c>
       <c r="L185">
         <v>1</v>
       </c>
       <c r="M185">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N185">
         <v>4</v>
@@ -9032,37 +9041,37 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>215.16</v>
+        <v>378.16</v>
       </c>
       <c r="D186">
-        <v>10.83</v>
+        <v>14.13</v>
       </c>
       <c r="E186">
-        <v>11.61</v>
+        <v>10.7</v>
       </c>
       <c r="F186">
-        <v>10.27</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G186">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="H186">
-        <v>-0.1</v>
+        <v>2.9</v>
       </c>
       <c r="I186">
-        <v>10227.1</v>
+        <v>61.5</v>
       </c>
       <c r="J186">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="K186">
-        <v>2.2000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="L186">
         <v>1</v>
       </c>
       <c r="M186">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N186">
         <v>5</v>
@@ -9076,37 +9085,37 @@
         <v>12</v>
       </c>
       <c r="C187">
-        <v>738.33</v>
+        <v>20932.72</v>
       </c>
       <c r="D187">
-        <v>10.68</v>
+        <v>13.03</v>
       </c>
       <c r="E187">
-        <v>11.31</v>
+        <v>10.37</v>
       </c>
       <c r="F187">
-        <v>10.25</v>
+        <v>16.47</v>
       </c>
       <c r="G187">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="H187">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="I187">
-        <v>10947</v>
+        <v>95.7</v>
       </c>
       <c r="J187">
-        <v>0.42</v>
+        <v>-0.61</v>
       </c>
       <c r="K187">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="L187">
         <v>1</v>
       </c>
       <c r="M187">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N187">
         <v>6</v>
@@ -9120,37 +9129,37 @@
         <v>13</v>
       </c>
       <c r="C188">
-        <v>816.1</v>
+        <v>32919.75</v>
       </c>
       <c r="D188">
-        <v>10.36</v>
+        <v>16</v>
       </c>
       <c r="E188">
-        <v>10.91</v>
+        <v>13.4</v>
       </c>
       <c r="F188">
-        <v>9.98</v>
+        <v>19.23</v>
       </c>
       <c r="G188">
-        <v>9.3000000000000007</v>
+        <v>5.4</v>
       </c>
       <c r="H188">
-        <v>2.5</v>
+        <v>-0.9</v>
       </c>
       <c r="I188">
-        <v>9749.7000000000007</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="J188">
-        <v>1.1000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="K188">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="L188">
         <v>1</v>
       </c>
       <c r="M188">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N188">
         <v>7</v>
@@ -9164,37 +9173,37 @@
         <v>14</v>
       </c>
       <c r="C189">
-        <v>1039.31</v>
+        <v>18729.099999999999</v>
       </c>
       <c r="D189">
-        <v>9.06</v>
+        <v>15.9</v>
       </c>
       <c r="E189">
-        <v>10.65</v>
+        <v>13.47</v>
       </c>
       <c r="F189">
-        <v>7.92</v>
+        <v>18.93</v>
       </c>
       <c r="G189">
-        <v>2.1</v>
+        <v>7.9</v>
       </c>
       <c r="H189">
-        <v>-0.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I189">
-        <v>11838.5</v>
+        <v>-182</v>
       </c>
       <c r="J189">
-        <v>2.4500000000000002</v>
+        <v>2.33</v>
       </c>
       <c r="K189">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
         <v>1</v>
       </c>
       <c r="M189">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N189">
         <v>8</v>
@@ -9208,34 +9217,34 @@
         <v>15</v>
       </c>
       <c r="C190">
-        <v>3009.04</v>
+        <v>10580.98</v>
       </c>
       <c r="D190">
-        <v>6.94</v>
+        <v>14.6</v>
       </c>
       <c r="E190">
-        <v>7.93</v>
+        <v>18.27</v>
       </c>
       <c r="F190">
-        <v>6.28</v>
+        <v>10.1</v>
       </c>
       <c r="G190">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H190">
-        <v>-2.2000000000000002</v>
+        <v>-0.3</v>
       </c>
       <c r="J190">
-        <v>2.58</v>
+        <v>3.79</v>
       </c>
       <c r="K190">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L190">
         <v>1</v>
       </c>
       <c r="M190">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N190">
         <v>9</v>
@@ -9252,34 +9261,34 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>10.77</v>
+        <v>11.73</v>
       </c>
       <c r="E191">
-        <v>11.07</v>
+        <v>14.63</v>
       </c>
       <c r="F191">
-        <v>10.43</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="G191">
-        <v>-1.7</v>
+        <v>-3.3</v>
       </c>
       <c r="H191">
+        <v>0.4</v>
+      </c>
+      <c r="I191">
+        <v>70.8</v>
+      </c>
+      <c r="J191">
+        <v>2.5</v>
+      </c>
+      <c r="K191">
         <v>0.2</v>
       </c>
-      <c r="I191">
-        <v>-13.4</v>
-      </c>
-      <c r="J191">
-        <v>2.86</v>
-      </c>
-      <c r="K191">
-        <v>-0.5</v>
-      </c>
       <c r="L191">
         <v>1</v>
       </c>
       <c r="M191">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N191">
         <v>1</v>
@@ -9296,34 +9305,34 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>11.47</v>
+        <v>14.6</v>
       </c>
       <c r="E192">
-        <v>11.1</v>
+        <v>17.43</v>
       </c>
       <c r="F192">
-        <v>11.93</v>
+        <v>11.4</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="H192">
         <v>-2.2999999999999998</v>
       </c>
       <c r="I192">
-        <v>-19</v>
+        <v>-204</v>
       </c>
       <c r="J192">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="K192">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="L192">
         <v>1</v>
       </c>
       <c r="M192">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N192">
         <v>2</v>
@@ -9337,37 +9346,37 @@
         <v>9</v>
       </c>
       <c r="C193">
-        <v>213.18</v>
-      </c>
-      <c r="D193" s="1">
-        <v>0.6</v>
+        <v>173.99</v>
+      </c>
+      <c r="D193">
+        <v>16.23</v>
       </c>
       <c r="E193">
-        <v>16.27</v>
+        <v>17.37</v>
       </c>
       <c r="F193">
-        <v>12.6</v>
+        <v>14.73</v>
       </c>
       <c r="G193">
-        <v>3</v>
+        <v>-0.2</v>
       </c>
       <c r="H193">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>28.5</v>
+        <v>164.4</v>
       </c>
       <c r="J193">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="K193">
-        <v>-1.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L193">
         <v>1</v>
       </c>
       <c r="M193">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N193">
         <v>3</v>
@@ -9381,37 +9390,37 @@
         <v>10</v>
       </c>
       <c r="C194">
-        <v>385.66</v>
+        <v>499.65</v>
       </c>
       <c r="D194">
-        <v>17.399999999999999</v>
+        <v>20.83</v>
       </c>
       <c r="E194">
-        <v>19.2</v>
+        <v>23.03</v>
       </c>
       <c r="F194">
-        <v>14.07</v>
+        <v>18.2</v>
       </c>
       <c r="G194">
-        <v>-11.8</v>
+        <v>-14.4</v>
       </c>
       <c r="H194">
-        <v>-5.3</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="I194">
-        <v>83.2</v>
+        <v>3006.7</v>
       </c>
       <c r="J194">
-        <v>-0.42</v>
+        <v>0.78</v>
       </c>
       <c r="K194">
-        <v>-7.3</v>
+        <v>-5.5</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N194">
         <v>4</v>
@@ -9425,37 +9434,37 @@
         <v>11</v>
       </c>
       <c r="C195">
-        <v>378.16</v>
+        <v>1069.2</v>
       </c>
       <c r="D195">
-        <v>14.13</v>
+        <v>22.9</v>
       </c>
       <c r="E195">
-        <v>10.7</v>
+        <v>26</v>
       </c>
       <c r="F195">
-        <v>18.399999999999999</v>
+        <v>19.27</v>
       </c>
       <c r="G195">
-        <v>18.7</v>
+        <v>22.8</v>
       </c>
       <c r="H195">
-        <v>2.9</v>
+        <v>10.4</v>
       </c>
       <c r="I195">
-        <v>61.5</v>
+        <v>-352.4</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K195">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N195">
         <v>5</v>
@@ -9469,37 +9478,37 @@
         <v>12</v>
       </c>
       <c r="C196">
-        <v>20932.72</v>
+        <v>51031.24</v>
       </c>
       <c r="D196">
-        <v>13.03</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="E196">
-        <v>10.37</v>
+        <v>20.07</v>
       </c>
       <c r="F196">
-        <v>16.47</v>
+        <v>17.03</v>
       </c>
       <c r="G196">
-        <v>8.1</v>
+        <v>5.5</v>
       </c>
       <c r="H196">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="I196">
-        <v>95.7</v>
+        <v>49.1</v>
       </c>
       <c r="J196">
-        <v>-0.61</v>
+        <v>0.53</v>
       </c>
       <c r="K196">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L196">
         <v>1</v>
       </c>
       <c r="M196">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N196">
         <v>6</v>
@@ -9513,37 +9522,37 @@
         <v>13</v>
       </c>
       <c r="C197">
-        <v>32919.75</v>
+        <v>27571.68</v>
       </c>
       <c r="D197">
-        <v>16</v>
+        <v>11.6</v>
       </c>
       <c r="E197">
-        <v>13.4</v>
+        <v>9.27</v>
       </c>
       <c r="F197">
-        <v>19.23</v>
+        <v>14.4</v>
       </c>
       <c r="G197">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="H197">
-        <v>-0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I197">
-        <v>39.799999999999997</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="J197">
-        <v>-0.12</v>
+        <v>0.83</v>
       </c>
       <c r="K197">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="L197">
         <v>1</v>
       </c>
       <c r="M197">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N197">
         <v>7</v>
@@ -9557,37 +9566,37 @@
         <v>14</v>
       </c>
       <c r="C198">
-        <v>18729.099999999999</v>
+        <v>23275.17</v>
       </c>
       <c r="D198">
-        <v>15.9</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="E198">
-        <v>13.47</v>
+        <v>17.73</v>
       </c>
       <c r="F198">
-        <v>18.93</v>
+        <v>20.8</v>
       </c>
       <c r="G198">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="H198">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="I198">
-        <v>-182</v>
+        <v>403.3</v>
       </c>
       <c r="J198">
-        <v>2.33</v>
+        <v>3.24</v>
       </c>
       <c r="K198">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L198">
         <v>1</v>
       </c>
       <c r="M198">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N198">
         <v>8</v>
@@ -9601,34 +9610,34 @@
         <v>15</v>
       </c>
       <c r="C199">
-        <v>10580.98</v>
+        <v>19013.240000000002</v>
       </c>
       <c r="D199">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="E199">
-        <v>18.27</v>
+        <v>15.97</v>
       </c>
       <c r="F199">
-        <v>10.1</v>
+        <v>13.8</v>
       </c>
       <c r="G199">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>-0.3</v>
+        <v>-5</v>
       </c>
       <c r="J199">
-        <v>3.79</v>
+        <v>5.41</v>
       </c>
       <c r="K199">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L199">
         <v>1</v>
       </c>
       <c r="M199">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N199">
         <v>9</v>
@@ -9636,7 +9645,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -9645,34 +9654,34 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>11.73</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="E200">
-        <v>14.63</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="F200">
-        <v>8.6300000000000008</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G200">
-        <v>-3.3</v>
+        <v>-8.9</v>
       </c>
       <c r="H200">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>70.8</v>
+        <v>5643.1</v>
       </c>
       <c r="J200">
-        <v>2.5</v>
+        <v>1.58</v>
       </c>
       <c r="K200">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="L200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M200">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N200">
         <v>1</v>
@@ -9680,7 +9689,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
@@ -9689,34 +9698,34 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>14.6</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="E201">
-        <v>17.43</v>
+        <v>19.07</v>
       </c>
       <c r="F201">
-        <v>11.4</v>
+        <v>17</v>
       </c>
       <c r="G201">
-        <v>-0.5</v>
+        <v>-7.6</v>
       </c>
       <c r="H201">
-        <v>-2.2999999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="I201">
-        <v>-204</v>
+        <v>-5309.5</v>
       </c>
       <c r="J201">
-        <v>2.04</v>
+        <v>1.35</v>
       </c>
       <c r="K201">
-        <v>1.3</v>
+        <v>-0.1</v>
       </c>
       <c r="L201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M201">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N201">
         <v>2</v>
@@ -9724,43 +9733,43 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
       </c>
       <c r="C202">
-        <v>173.99</v>
+        <v>3430.93</v>
       </c>
       <c r="D202">
-        <v>16.23</v>
+        <v>18.57</v>
       </c>
       <c r="E202">
-        <v>17.37</v>
+        <v>20.37</v>
       </c>
       <c r="F202">
-        <v>14.73</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G202">
-        <v>-0.2</v>
+        <v>-1.8</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="I202">
-        <v>164.4</v>
+        <v>8250.7000000000007</v>
       </c>
       <c r="J202">
-        <v>2.5</v>
+        <v>1.49</v>
       </c>
       <c r="K202">
-        <v>1.1000000000000001</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="L202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M202">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N202">
         <v>3</v>
@@ -9768,43 +9777,43 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
       </c>
       <c r="C203">
-        <v>499.65</v>
+        <v>3341.14</v>
       </c>
       <c r="D203">
-        <v>20.83</v>
+        <v>26.1</v>
       </c>
       <c r="E203">
-        <v>23.03</v>
+        <v>28</v>
       </c>
       <c r="F203">
-        <v>18.2</v>
+        <v>13.9</v>
       </c>
       <c r="G203">
-        <v>-14.4</v>
+        <v>-11.1</v>
       </c>
       <c r="H203">
-        <v>-9.6999999999999993</v>
+        <v>-11.3</v>
       </c>
       <c r="I203">
-        <v>3006.7</v>
+        <v>73005.100000000006</v>
       </c>
       <c r="J203">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="K203">
-        <v>-5.5</v>
+        <v>-6.2</v>
       </c>
       <c r="L203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M203">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N203">
         <v>4</v>
@@ -9812,43 +9821,43 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B204" t="s">
         <v>11</v>
       </c>
       <c r="C204">
-        <v>1069.2</v>
+        <v>6631.86</v>
       </c>
       <c r="D204">
-        <v>22.9</v>
+        <v>24.03</v>
       </c>
       <c r="E204">
-        <v>26</v>
+        <v>25.43</v>
       </c>
       <c r="F204">
-        <v>19.27</v>
+        <v>22.53</v>
       </c>
       <c r="G204">
-        <v>22.8</v>
+        <v>19.2</v>
       </c>
       <c r="H204">
-        <v>10.4</v>
+        <v>33.9</v>
       </c>
       <c r="I204">
-        <v>-352.4</v>
+        <v>643.9</v>
       </c>
       <c r="J204">
-        <v>1.02</v>
+        <v>0.74</v>
       </c>
       <c r="K204">
-        <v>2.8</v>
+        <v>7.8</v>
       </c>
       <c r="L204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M204">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N204">
         <v>5</v>
@@ -9856,43 +9865,43 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B205" t="s">
         <v>12</v>
       </c>
       <c r="C205">
-        <v>51031.24</v>
+        <v>59711.98</v>
       </c>
       <c r="D205">
-        <v>18.670000000000002</v>
+        <v>21.87</v>
       </c>
       <c r="E205">
-        <v>20.07</v>
+        <v>22.3</v>
       </c>
       <c r="F205">
-        <v>17.03</v>
+        <v>21.33</v>
       </c>
       <c r="G205">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H205">
-        <v>5.8</v>
+        <v>-8.4</v>
       </c>
       <c r="I205">
-        <v>49.1</v>
+        <v>13104.3</v>
       </c>
       <c r="J205">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="K205">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="L205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M205">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N205">
         <v>6</v>
@@ -9900,43 +9909,43 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B206" t="s">
         <v>13</v>
       </c>
       <c r="C206">
-        <v>27571.68</v>
+        <v>23986.55</v>
       </c>
       <c r="D206">
-        <v>11.6</v>
+        <v>20.13</v>
       </c>
       <c r="E206">
-        <v>9.27</v>
+        <v>20.13</v>
       </c>
       <c r="F206">
-        <v>14.4</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G206">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H206">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="I206">
-        <v>66.900000000000006</v>
+        <v>1172.9000000000001</v>
       </c>
       <c r="J206">
-        <v>0.83</v>
+        <v>1.25</v>
       </c>
       <c r="K206">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M206">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N206">
         <v>7</v>
@@ -9944,43 +9953,43 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B207" t="s">
         <v>14</v>
       </c>
       <c r="C207">
-        <v>23275.17</v>
+        <v>14260.87</v>
       </c>
       <c r="D207">
-        <v>19.170000000000002</v>
+        <v>18.3</v>
       </c>
       <c r="E207">
-        <v>17.73</v>
+        <v>18.3</v>
       </c>
       <c r="F207">
-        <v>20.8</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="G207">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="H207">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="I207">
-        <v>403.3</v>
+        <v>-306.10000000000002</v>
       </c>
       <c r="J207">
-        <v>3.24</v>
+        <v>2.27</v>
       </c>
       <c r="K207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M207">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N207">
         <v>8</v>
@@ -9988,40 +9997,40 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B208" t="s">
         <v>15</v>
       </c>
       <c r="C208">
-        <v>19013.240000000002</v>
+        <v>11712.09</v>
       </c>
       <c r="D208">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="E208">
-        <v>15.97</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F208">
-        <v>13.8</v>
+        <v>16.37</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H208">
-        <v>-5</v>
+        <v>-1.4</v>
       </c>
       <c r="J208">
-        <v>5.41</v>
+        <v>2.48</v>
       </c>
       <c r="K208">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M208">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N208">
         <v>9</v>
@@ -10029,7 +10038,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -10038,34 +10047,34 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>17.329999999999998</v>
+        <v>7.49</v>
       </c>
       <c r="E209">
-        <v>18.329999999999998</v>
+        <v>7.21</v>
       </c>
       <c r="F209">
-        <v>16.100000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="G209">
-        <v>-8.9</v>
+        <v>-1.3</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>-1.2</v>
       </c>
       <c r="I209">
-        <v>5643.1</v>
+        <v>4044.7</v>
       </c>
       <c r="J209">
-        <v>1.58</v>
+        <v>3.31</v>
       </c>
       <c r="K209">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="L209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M209">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N209">
         <v>1</v>
@@ -10073,7 +10082,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
@@ -10082,34 +10091,34 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>18.170000000000002</v>
+        <v>7.28</v>
       </c>
       <c r="E210">
-        <v>19.07</v>
+        <v>7.11</v>
       </c>
       <c r="F210">
-        <v>17</v>
+        <v>7.56</v>
       </c>
       <c r="G210">
-        <v>-7.6</v>
+        <v>-3.3</v>
       </c>
       <c r="H210">
-        <v>0.9</v>
+        <v>-1.8</v>
       </c>
       <c r="I210">
-        <v>-5309.5</v>
+        <v>2369.6999999999998</v>
       </c>
       <c r="J210">
-        <v>1.35</v>
+        <v>2.94</v>
       </c>
       <c r="K210">
-        <v>-0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="L210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N210">
         <v>2</v>
@@ -10117,43 +10126,43 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B211" t="s">
         <v>9</v>
       </c>
       <c r="C211">
-        <v>3430.93</v>
+        <v>9.33</v>
       </c>
       <c r="D211">
-        <v>18.57</v>
+        <v>7.08</v>
       </c>
       <c r="E211">
-        <v>20.37</v>
+        <v>6.43</v>
       </c>
       <c r="F211">
-        <v>16.399999999999999</v>
+        <v>8.14</v>
       </c>
       <c r="G211">
-        <v>-1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H211">
-        <v>-9.8000000000000007</v>
+        <v>-2.6</v>
       </c>
       <c r="I211">
-        <v>8250.7000000000007</v>
+        <v>592.6</v>
       </c>
       <c r="J211">
-        <v>1.49</v>
+        <v>3.39</v>
       </c>
       <c r="K211">
-        <v>-1.1000000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="L211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M211">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N211">
         <v>3</v>
@@ -10161,43 +10170,43 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
       </c>
       <c r="C212">
-        <v>3341.14</v>
+        <v>1726.32</v>
       </c>
       <c r="D212">
-        <v>26.1</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="E212">
-        <v>28</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="F212">
-        <v>13.9</v>
+        <v>9</v>
       </c>
       <c r="G212">
-        <v>-11.1</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="H212">
-        <v>-11.3</v>
+        <v>-28.3</v>
       </c>
       <c r="I212">
-        <v>73005.100000000006</v>
+        <v>4887.6000000000004</v>
       </c>
       <c r="J212">
-        <v>0.52</v>
+        <v>2.77</v>
       </c>
       <c r="K212">
-        <v>-6.2</v>
+        <v>-17.8</v>
       </c>
       <c r="L212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M212">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N212">
         <v>4</v>
@@ -10205,43 +10214,43 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B213" t="s">
         <v>11</v>
       </c>
       <c r="C213">
-        <v>6631.86</v>
+        <v>3969.89</v>
       </c>
       <c r="D213">
-        <v>24.03</v>
+        <v>9.02</v>
       </c>
       <c r="E213">
-        <v>25.43</v>
+        <v>8.34</v>
       </c>
       <c r="F213">
-        <v>22.53</v>
+        <v>10.27</v>
       </c>
       <c r="G213">
-        <v>19.2</v>
+        <v>50.8</v>
       </c>
       <c r="H213">
-        <v>33.9</v>
+        <v>19.5</v>
       </c>
       <c r="I213">
-        <v>643.9</v>
+        <v>153.1</v>
       </c>
       <c r="J213">
-        <v>0.74</v>
+        <v>3.9</v>
       </c>
       <c r="K213">
-        <v>7.8</v>
+        <v>13.8</v>
       </c>
       <c r="L213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M213">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N213">
         <v>5</v>
@@ -10249,43 +10258,43 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B214" t="s">
         <v>12</v>
       </c>
       <c r="C214">
-        <v>59711.98</v>
+        <v>5242.33</v>
       </c>
       <c r="D214">
-        <v>21.87</v>
+        <v>7.89</v>
       </c>
       <c r="E214">
-        <v>22.3</v>
+        <v>7.31</v>
       </c>
       <c r="F214">
-        <v>21.33</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="G214">
-        <v>1.7</v>
+        <v>7.2</v>
       </c>
       <c r="H214">
-        <v>-8.4</v>
+        <v>4.7</v>
       </c>
       <c r="I214">
-        <v>13104.3</v>
+        <v>-2912.3</v>
       </c>
       <c r="J214">
-        <v>0.54</v>
+        <v>3.52</v>
       </c>
       <c r="K214">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="L214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M214">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N214">
         <v>6</v>
@@ -10293,43 +10302,43 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B215" t="s">
         <v>13</v>
       </c>
       <c r="C215">
-        <v>23986.55</v>
+        <v>6239.67</v>
       </c>
       <c r="D215">
-        <v>20.13</v>
+        <v>8.44</v>
       </c>
       <c r="E215">
-        <v>20.13</v>
+        <v>7.9</v>
       </c>
       <c r="F215">
-        <v>20.100000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="G215">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="H215">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="I215">
-        <v>1172.9000000000001</v>
+        <v>2086.8000000000002</v>
       </c>
       <c r="J215">
-        <v>1.25</v>
+        <v>3.99</v>
       </c>
       <c r="K215">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="L215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M215">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N215">
         <v>7</v>
@@ -10337,43 +10346,43 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B216" t="s">
         <v>14</v>
       </c>
       <c r="C216">
-        <v>14260.87</v>
+        <v>2105.58</v>
       </c>
       <c r="D216">
-        <v>18.3</v>
+        <v>9.08</v>
       </c>
       <c r="E216">
-        <v>18.3</v>
+        <v>9.24</v>
       </c>
       <c r="F216">
-        <v>18.329999999999998</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="G216">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="H216">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="I216">
-        <v>-306.10000000000002</v>
+        <v>835.3</v>
       </c>
       <c r="J216">
-        <v>2.27</v>
+        <v>5.95</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="L216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M216">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N216">
         <v>8</v>
@@ -10381,40 +10390,40 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B217" t="s">
         <v>15</v>
       </c>
       <c r="C217">
-        <v>11712.09</v>
+        <v>8768.7000000000007</v>
       </c>
       <c r="D217">
-        <v>16.5</v>
+        <v>7.33</v>
       </c>
       <c r="E217">
-        <v>16.600000000000001</v>
+        <v>6.94</v>
       </c>
       <c r="F217">
-        <v>16.37</v>
+        <v>8</v>
       </c>
       <c r="G217">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>-1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J217">
-        <v>2.48</v>
+        <v>5.8</v>
       </c>
       <c r="K217">
-        <v>0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M217">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N217">
         <v>9</v>
@@ -10422,7 +10431,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -10431,34 +10440,34 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>7.49</v>
+        <v>6.93</v>
       </c>
       <c r="E218">
-        <v>7.21</v>
+        <v>7.6</v>
       </c>
       <c r="F218">
-        <v>7.98</v>
+        <v>6.3</v>
       </c>
       <c r="G218">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>-1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I218">
-        <v>4044.7</v>
+        <v>-3135.3</v>
       </c>
       <c r="J218">
-        <v>3.31</v>
-      </c>
-      <c r="K218">
-        <v>0.7</v>
+        <v>2.67</v>
+      </c>
+      <c r="K218" s="1">
+        <v>0.39999999999999997</v>
       </c>
       <c r="L218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M218">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N218">
         <v>1</v>
@@ -10466,7 +10475,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
@@ -10475,34 +10484,34 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>7.28</v>
+        <v>7.1</v>
       </c>
       <c r="E219">
-        <v>7.11</v>
+        <v>7.9</v>
       </c>
       <c r="F219">
-        <v>7.56</v>
+        <v>6.33</v>
       </c>
       <c r="G219">
-        <v>-3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H219">
-        <v>-1.8</v>
+        <v>-0.1</v>
       </c>
       <c r="I219">
-        <v>2369.6999999999998</v>
+        <v>23151</v>
       </c>
       <c r="J219">
-        <v>2.94</v>
+        <v>2.67</v>
       </c>
       <c r="K219">
-        <v>-1.3</v>
+        <v>0.5</v>
       </c>
       <c r="L219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M219">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N219">
         <v>2</v>
@@ -10510,43 +10519,43 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B220" t="s">
         <v>9</v>
       </c>
       <c r="C220">
-        <v>9.33</v>
+        <v>733.76</v>
       </c>
       <c r="D220">
-        <v>7.08</v>
+        <v>6.33</v>
       </c>
       <c r="E220">
-        <v>6.43</v>
+        <v>6.6</v>
       </c>
       <c r="F220">
-        <v>8.14</v>
+        <v>6.1</v>
       </c>
       <c r="G220">
-        <v>1.6</v>
+        <v>-3.5</v>
       </c>
       <c r="H220">
-        <v>-2.6</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>592.6</v>
+        <v>-31945.8</v>
       </c>
       <c r="J220">
-        <v>3.39</v>
+        <v>1.61</v>
       </c>
       <c r="K220">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="L220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M220">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N220">
         <v>3</v>
@@ -10554,43 +10563,43 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
       </c>
       <c r="C221">
-        <v>1726.32</v>
+        <v>2198.15</v>
       </c>
       <c r="D221">
-        <v>8.7799999999999994</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="E221">
-        <v>8.6199999999999992</v>
+        <v>10.17</v>
       </c>
       <c r="F221">
-        <v>9</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="G221">
-        <v>-35.700000000000003</v>
+        <v>-14.5</v>
       </c>
       <c r="H221">
-        <v>-28.3</v>
+        <v>-10.8</v>
       </c>
       <c r="I221">
-        <v>4887.6000000000004</v>
+        <v>-6576.7</v>
       </c>
       <c r="J221">
-        <v>2.77</v>
+        <v>1.31</v>
       </c>
       <c r="K221">
-        <v>-17.8</v>
+        <v>-8.4</v>
       </c>
       <c r="L221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M221">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N221">
         <v>4</v>
@@ -10598,43 +10607,43 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
       </c>
       <c r="C222">
-        <v>3969.89</v>
+        <v>4143.8100000000004</v>
       </c>
       <c r="D222">
-        <v>9.02</v>
+        <v>11</v>
       </c>
       <c r="E222">
-        <v>8.34</v>
+        <v>10.97</v>
       </c>
       <c r="F222">
-        <v>10.27</v>
+        <v>11</v>
       </c>
       <c r="G222">
-        <v>50.8</v>
+        <v>16.3</v>
       </c>
       <c r="H222">
-        <v>19.5</v>
+        <v>5.2</v>
       </c>
       <c r="I222">
-        <v>153.1</v>
+        <v>-17380.5</v>
       </c>
       <c r="J222">
-        <v>3.9</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K222">
-        <v>13.8</v>
+        <v>7.5</v>
       </c>
       <c r="L222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M222">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N222">
         <v>5</v>
@@ -10642,43 +10651,43 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B223" t="s">
         <v>12</v>
       </c>
       <c r="C223">
-        <v>5242.33</v>
+        <v>39417.769999999997</v>
       </c>
       <c r="D223">
-        <v>7.89</v>
+        <v>9.67</v>
       </c>
       <c r="E223">
-        <v>7.31</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F223">
-        <v>8.9499999999999993</v>
+        <v>10.1</v>
       </c>
       <c r="G223">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="H223">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="I223">
-        <v>-2912.3</v>
+        <v>-121342.2</v>
       </c>
       <c r="J223">
-        <v>3.52</v>
+        <v>1.01</v>
       </c>
       <c r="K223">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="L223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M223">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N223">
         <v>6</v>
@@ -10686,43 +10695,43 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B224" t="s">
         <v>13</v>
       </c>
       <c r="C224">
-        <v>6239.67</v>
+        <v>27736.76</v>
       </c>
       <c r="D224">
-        <v>8.44</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="E224">
-        <v>7.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F224">
-        <v>9.4</v>
+        <v>9.43</v>
       </c>
       <c r="G224">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H224">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>2086.8000000000002</v>
+        <v>33154.1</v>
       </c>
       <c r="J224">
-        <v>3.99</v>
+        <v>1.75</v>
       </c>
       <c r="K224">
-        <v>1</v>
+        <v>-0.8</v>
       </c>
       <c r="L224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M224">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N224">
         <v>7</v>
@@ -10730,43 +10739,43 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B225" t="s">
         <v>14</v>
       </c>
       <c r="C225">
-        <v>2105.58</v>
+        <v>24003.65</v>
       </c>
       <c r="D225">
-        <v>9.08</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="E225">
-        <v>9.24</v>
+        <v>7.93</v>
       </c>
       <c r="F225">
-        <v>8.7100000000000009</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G225">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="H225">
-        <v>1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="I225">
-        <v>835.3</v>
+        <v>11038.4</v>
       </c>
       <c r="J225">
-        <v>5.95</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="K225">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="L225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M225">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N225">
         <v>8</v>
@@ -10774,40 +10783,40 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B226" t="s">
         <v>15</v>
       </c>
       <c r="C226">
-        <v>8768.7000000000007</v>
+        <v>18554.02</v>
       </c>
       <c r="D226">
-        <v>7.33</v>
+        <v>7.37</v>
       </c>
       <c r="E226">
-        <v>6.94</v>
+        <v>7.1</v>
       </c>
       <c r="F226">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H226">
-        <v>1.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="J226">
-        <v>5.8</v>
+        <v>2.17</v>
       </c>
       <c r="K226">
-        <v>-0.4</v>
+        <v>2.1</v>
       </c>
       <c r="L226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M226">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N226">
         <v>9</v>
@@ -10815,7 +10824,7 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -10824,34 +10833,34 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>6.93</v>
+        <v>11.06</v>
       </c>
       <c r="E227">
-        <v>7.6</v>
+        <v>10.77</v>
       </c>
       <c r="F227">
-        <v>6.3</v>
+        <v>11.38</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H227">
-        <v>1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I227">
-        <v>-3135.3</v>
+        <v>-180.5</v>
       </c>
       <c r="J227">
-        <v>2.67</v>
-      </c>
-      <c r="K227" s="1">
-        <v>0.39999999999999997</v>
+        <v>1.46</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
       </c>
       <c r="L227">
         <v>0</v>
       </c>
       <c r="M227">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N227">
         <v>1</v>
@@ -10859,7 +10868,7 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B228" t="s">
         <v>8</v>
@@ -10868,34 +10877,34 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>7.1</v>
+        <v>11.27</v>
       </c>
       <c r="E228">
-        <v>7.9</v>
+        <v>11.67</v>
       </c>
       <c r="F228">
-        <v>6.33</v>
+        <v>10.84</v>
       </c>
       <c r="G228">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H228">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I228">
-        <v>23151</v>
+        <v>478.03</v>
       </c>
       <c r="J228">
-        <v>2.67</v>
+        <v>1.85</v>
       </c>
       <c r="K228">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L228">
         <v>0</v>
       </c>
       <c r="M228">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N228">
         <v>2</v>
@@ -10903,43 +10912,43 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B229" t="s">
         <v>9</v>
       </c>
       <c r="C229">
-        <v>733.76</v>
+        <v>126.21</v>
       </c>
       <c r="D229">
-        <v>6.33</v>
+        <v>11.81</v>
       </c>
       <c r="E229">
-        <v>6.6</v>
+        <v>12.27</v>
       </c>
       <c r="F229">
-        <v>6.1</v>
+        <v>11.31</v>
       </c>
       <c r="G229">
-        <v>-3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="I229">
-        <v>-31945.8</v>
+        <v>169.03</v>
       </c>
       <c r="J229">
-        <v>1.61</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="K229">
-        <v>-1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="L229">
         <v>0</v>
       </c>
       <c r="M229">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N229">
         <v>3</v>
@@ -10947,43 +10956,43 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B230" t="s">
         <v>10</v>
       </c>
       <c r="C230">
-        <v>2198.15</v>
+        <v>171.86</v>
       </c>
       <c r="D230">
-        <v>9.5299999999999994</v>
+        <v>10.52</v>
       </c>
       <c r="E230">
-        <v>10.17</v>
+        <v>10.61</v>
       </c>
       <c r="F230">
-        <v>8.8699999999999992</v>
+        <v>10.42</v>
       </c>
       <c r="G230">
-        <v>-14.5</v>
+        <v>-7.8</v>
       </c>
       <c r="H230">
-        <v>-10.8</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="I230">
-        <v>-6576.7</v>
+        <v>118.1</v>
       </c>
       <c r="J230">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="K230">
-        <v>-8.4</v>
+        <v>-10.3</v>
       </c>
       <c r="L230">
         <v>0</v>
       </c>
       <c r="M230">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N230">
         <v>4</v>
@@ -10991,43 +11000,43 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
       </c>
       <c r="C231">
-        <v>4143.8100000000004</v>
+        <v>62.42</v>
       </c>
       <c r="D231">
-        <v>11</v>
+        <v>13.83</v>
       </c>
       <c r="E231">
-        <v>10.97</v>
+        <v>13.31</v>
       </c>
       <c r="F231">
-        <v>11</v>
+        <v>14.41</v>
       </c>
       <c r="G231">
-        <v>16.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H231">
-        <v>5.2</v>
+        <v>25.7</v>
       </c>
       <c r="I231">
-        <v>-17380.5</v>
+        <v>-83.7</v>
       </c>
       <c r="J231">
-        <v>1.1599999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="K231">
-        <v>7.5</v>
+        <v>13.9</v>
       </c>
       <c r="L231">
         <v>0</v>
       </c>
       <c r="M231">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N231">
         <v>5</v>
@@ -11035,43 +11044,43 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B232" t="s">
         <v>12</v>
       </c>
       <c r="C232">
-        <v>39417.769999999997</v>
+        <v>61.25</v>
       </c>
       <c r="D232">
-        <v>9.67</v>
+        <v>13.64</v>
       </c>
       <c r="E232">
-        <v>9.3000000000000007</v>
+        <v>12.84</v>
       </c>
       <c r="F232">
-        <v>10.1</v>
+        <v>14.51</v>
       </c>
       <c r="G232">
-        <v>8.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H232">
-        <v>3.4</v>
+        <v>-0.7</v>
       </c>
       <c r="I232">
-        <v>-121342.2</v>
+        <v>319.2</v>
       </c>
       <c r="J232">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="K232">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="L232">
         <v>0</v>
       </c>
       <c r="M232">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N232">
         <v>6</v>
@@ -11079,43 +11088,43 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B233" t="s">
         <v>13</v>
       </c>
       <c r="C233">
-        <v>27736.76</v>
+        <v>66.13</v>
       </c>
       <c r="D233">
-        <v>9.1300000000000008</v>
+        <v>12.4</v>
       </c>
       <c r="E233">
-        <v>8.8000000000000007</v>
+        <v>13.19</v>
       </c>
       <c r="F233">
-        <v>9.43</v>
+        <v>11.54</v>
       </c>
       <c r="G233">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I233">
-        <v>33154.1</v>
+        <v>69</v>
       </c>
       <c r="J233">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="K233">
-        <v>-0.8</v>
+        <v>1.5</v>
       </c>
       <c r="L233">
         <v>0</v>
       </c>
       <c r="M233">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N233">
         <v>7</v>
@@ -11123,43 +11132,43 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B234" t="s">
         <v>14</v>
       </c>
       <c r="C234">
-        <v>24003.65</v>
+        <v>47.01</v>
       </c>
       <c r="D234">
-        <v>8.3699999999999992</v>
+        <v>10.88</v>
       </c>
       <c r="E234">
-        <v>7.93</v>
+        <v>10.82</v>
       </c>
       <c r="F234">
-        <v>8.8000000000000007</v>
+        <v>10.93</v>
       </c>
       <c r="G234">
-        <v>6.5</v>
+        <v>10.4</v>
       </c>
       <c r="H234">
-        <v>-1.6</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="I234">
-        <v>11038.4</v>
+        <v>-274.7</v>
       </c>
       <c r="J234">
-        <v>2.0099999999999998</v>
+        <v>3.34</v>
       </c>
       <c r="K234">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="L234">
         <v>0</v>
       </c>
       <c r="M234">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N234">
         <v>8</v>
@@ -11167,40 +11176,40 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B235" t="s">
         <v>15</v>
       </c>
       <c r="C235">
-        <v>18554.02</v>
+        <v>298.66000000000003</v>
       </c>
       <c r="D235">
-        <v>7.37</v>
+        <v>10.01</v>
       </c>
       <c r="E235">
-        <v>7.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F235">
-        <v>7.6</v>
+        <v>9.82</v>
       </c>
       <c r="G235">
-        <v>2.1</v>
+        <v>-1.3</v>
       </c>
       <c r="H235">
-        <v>-2.2999999999999998</v>
+        <v>-5.3</v>
       </c>
       <c r="J235">
-        <v>2.17</v>
+        <v>4.93</v>
       </c>
       <c r="K235">
-        <v>2.1</v>
+        <v>-3.7</v>
       </c>
       <c r="L235">
         <v>0</v>
       </c>
       <c r="M235">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N235">
         <v>9</v>
@@ -11208,7 +11217,7 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -11217,34 +11226,31 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>11.06</v>
+        <v>9.93</v>
       </c>
       <c r="E236">
-        <v>10.77</v>
+        <v>10.4</v>
       </c>
       <c r="F236">
-        <v>11.38</v>
+        <v>9.43</v>
       </c>
       <c r="G236">
-        <v>-3</v>
+        <v>-12.2</v>
       </c>
       <c r="H236">
-        <v>0.3</v>
-      </c>
-      <c r="I236">
-        <v>-180.5</v>
+        <v>2.1</v>
       </c>
       <c r="J236">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="K236">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="L236">
         <v>0</v>
       </c>
       <c r="M236">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N236">
         <v>1</v>
@@ -11252,7 +11258,7 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
@@ -11260,35 +11266,32 @@
       <c r="C237">
         <v>0</v>
       </c>
-      <c r="D237">
-        <v>11.27</v>
+      <c r="D237" s="1">
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="E237">
-        <v>11.67</v>
+        <v>11</v>
       </c>
       <c r="F237">
-        <v>10.84</v>
+        <v>9.17</v>
       </c>
       <c r="G237">
-        <v>1.1000000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="H237">
-        <v>0.2</v>
-      </c>
-      <c r="I237">
-        <v>478.03</v>
+        <v>1.8</v>
       </c>
       <c r="J237">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="K237">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="L237">
         <v>0</v>
       </c>
       <c r="M237">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N237">
         <v>2</v>
@@ -11296,34 +11299,34 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
       </c>
       <c r="C238">
-        <v>126.21</v>
+        <v>849.13</v>
       </c>
       <c r="D238">
-        <v>11.81</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="E238">
-        <v>12.27</v>
+        <v>11.07</v>
       </c>
       <c r="F238">
-        <v>11.31</v>
+        <v>9.1</v>
       </c>
       <c r="G238">
-        <v>0.7</v>
+        <v>-13.6</v>
       </c>
       <c r="H238">
-        <v>-3.4</v>
+        <v>-7.1</v>
       </c>
       <c r="I238">
-        <v>169.03</v>
+        <v>-1956.5</v>
       </c>
       <c r="J238">
-        <v>2.5299999999999998</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K238">
         <v>-1.3</v>
@@ -11332,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N238">
         <v>3</v>
@@ -11340,43 +11343,43 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B239" t="s">
         <v>10</v>
       </c>
       <c r="C239">
-        <v>171.86</v>
+        <v>775.39</v>
       </c>
       <c r="D239">
-        <v>10.52</v>
+        <v>11.6</v>
       </c>
       <c r="E239">
-        <v>10.61</v>
+        <v>11.57</v>
       </c>
       <c r="F239">
-        <v>10.42</v>
+        <v>11.7</v>
       </c>
       <c r="G239">
-        <v>-7.8</v>
+        <v>-21.9</v>
       </c>
       <c r="H239">
-        <v>-19.100000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="I239">
-        <v>118.1</v>
+        <v>-2150.1999999999998</v>
       </c>
       <c r="J239">
-        <v>1.45</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K239">
-        <v>-10.3</v>
+        <v>-4.7</v>
       </c>
       <c r="L239">
         <v>0</v>
       </c>
       <c r="M239">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N239">
         <v>4</v>
@@ -11384,43 +11387,43 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B240" t="s">
         <v>11</v>
       </c>
       <c r="C240">
-        <v>62.42</v>
+        <v>941.89</v>
       </c>
       <c r="D240">
-        <v>13.83</v>
+        <v>13</v>
       </c>
       <c r="E240">
-        <v>13.31</v>
+        <v>13.4</v>
       </c>
       <c r="F240">
-        <v>14.41</v>
+        <v>12.57</v>
       </c>
       <c r="G240">
-        <v>9.1999999999999993</v>
+        <v>21.1</v>
       </c>
       <c r="H240">
-        <v>25.7</v>
+        <v>-1.2</v>
       </c>
       <c r="I240">
-        <v>-83.7</v>
+        <v>1349.5</v>
       </c>
       <c r="J240">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="K240">
-        <v>13.9</v>
+        <v>4.5</v>
       </c>
       <c r="L240">
         <v>0</v>
       </c>
       <c r="M240">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N240">
         <v>5</v>
@@ -11428,43 +11431,43 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B241" t="s">
         <v>12</v>
       </c>
       <c r="C241">
-        <v>61.25</v>
+        <v>6502.45</v>
       </c>
       <c r="D241">
-        <v>13.64</v>
+        <v>11.23</v>
       </c>
       <c r="E241">
-        <v>12.84</v>
+        <v>11.93</v>
       </c>
       <c r="F241">
-        <v>14.51</v>
+        <v>10.47</v>
       </c>
       <c r="G241">
-        <v>2.2999999999999998</v>
+        <v>9.5</v>
       </c>
       <c r="H241">
-        <v>-0.7</v>
+        <v>1.6</v>
       </c>
       <c r="I241">
-        <v>319.2</v>
+        <v>-3116.8</v>
       </c>
       <c r="J241">
-        <v>1.44</v>
+        <v>2.19</v>
       </c>
       <c r="K241">
-        <v>-0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L241">
         <v>0</v>
       </c>
       <c r="M241">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N241">
         <v>6</v>
@@ -11472,43 +11475,43 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B242" t="s">
         <v>13</v>
       </c>
       <c r="C242">
-        <v>66.13</v>
+        <v>8509.91</v>
       </c>
       <c r="D242">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
       <c r="E242">
-        <v>13.19</v>
+        <v>12.2</v>
       </c>
       <c r="F242">
-        <v>11.54</v>
+        <v>10.5</v>
       </c>
       <c r="G242">
-        <v>2.5</v>
+        <v>25.6</v>
       </c>
       <c r="H242">
-        <v>6</v>
+        <v>-0.5</v>
       </c>
       <c r="I242">
-        <v>69</v>
+        <v>5782.6</v>
       </c>
       <c r="J242">
-        <v>1.52</v>
+        <v>2.97</v>
       </c>
       <c r="K242">
-        <v>1.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L242">
         <v>0</v>
       </c>
       <c r="M242">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N242">
         <v>7</v>
@@ -11516,43 +11519,43 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B243" t="s">
         <v>14</v>
       </c>
       <c r="C243">
-        <v>47.01</v>
+        <v>6395.97</v>
       </c>
       <c r="D243">
-        <v>10.88</v>
+        <v>12.1</v>
       </c>
       <c r="E243">
-        <v>10.82</v>
+        <v>12.57</v>
       </c>
       <c r="F243">
-        <v>10.93</v>
+        <v>11.6</v>
       </c>
       <c r="G243">
-        <v>10.4</v>
+        <v>22</v>
       </c>
       <c r="H243">
-        <v>-2.2000000000000002</v>
+        <v>-0.2</v>
       </c>
       <c r="I243">
-        <v>-274.7</v>
+        <v>2228.3000000000002</v>
       </c>
       <c r="J243">
-        <v>3.34</v>
+        <v>2.83</v>
       </c>
       <c r="K243">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="L243">
         <v>0</v>
       </c>
       <c r="M243">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N243">
         <v>8</v>
@@ -11560,40 +11563,40 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B244" t="s">
         <v>15</v>
       </c>
       <c r="C244">
-        <v>298.66000000000003</v>
+        <v>10577.56</v>
       </c>
       <c r="D244">
-        <v>10.01</v>
+        <v>10.47</v>
       </c>
       <c r="E244">
-        <v>10.199999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="F244">
-        <v>9.82</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="G244">
-        <v>-1.3</v>
+        <v>22.3</v>
       </c>
       <c r="H244">
-        <v>-5.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J244">
-        <v>4.93</v>
+        <v>3.49</v>
       </c>
       <c r="K244">
-        <v>-3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L244">
         <v>0</v>
       </c>
       <c r="M244">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N244">
         <v>9</v>
@@ -11601,7 +11604,7 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B245" t="s">
         <v>7</v>
@@ -11610,31 +11613,34 @@
         <v>0</v>
       </c>
       <c r="D245">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E245">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="F245">
         <v>9.93</v>
       </c>
-      <c r="E245">
-        <v>10.4</v>
-      </c>
-      <c r="F245">
-        <v>9.43</v>
-      </c>
       <c r="G245">
-        <v>-12.2</v>
+        <v>-0.4</v>
       </c>
       <c r="H245">
-        <v>2.1</v>
+        <v>-0.5</v>
+      </c>
+      <c r="I245">
+        <v>-645.29999999999995</v>
       </c>
       <c r="J245">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="K245">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L245">
         <v>0</v>
       </c>
       <c r="M245">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N245">
         <v>1</v>
@@ -11642,7 +11648,7 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B246" t="s">
         <v>8</v>
@@ -11651,31 +11657,34 @@
         <v>0</v>
       </c>
       <c r="D246" s="1">
-        <v>9.9999999999999992E-2</v>
+        <v>0.3298611111111111</v>
       </c>
       <c r="E246">
-        <v>11</v>
+        <v>8.33</v>
       </c>
       <c r="F246">
-        <v>9.17</v>
+        <v>8.33</v>
       </c>
       <c r="G246">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>1.8</v>
+        <v>3.9</v>
+      </c>
+      <c r="I246">
+        <v>-1053.4000000000001</v>
       </c>
       <c r="J246">
-        <v>1.61</v>
+        <v>2.83</v>
       </c>
       <c r="K246">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="L246">
         <v>0</v>
       </c>
       <c r="M246">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N246">
         <v>2</v>
@@ -11683,43 +11692,43 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B247" t="s">
         <v>9</v>
       </c>
       <c r="C247">
-        <v>849.13</v>
+        <v>61.14</v>
       </c>
       <c r="D247">
-        <v>10.130000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="E247">
-        <v>11.07</v>
+        <v>9.67</v>
       </c>
       <c r="F247">
-        <v>9.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G247">
-        <v>-13.6</v>
+        <v>0.1</v>
       </c>
       <c r="H247">
-        <v>-7.1</v>
+        <v>-0.7</v>
       </c>
       <c r="I247">
-        <v>-1956.5</v>
+        <v>474.1</v>
       </c>
       <c r="J247">
-        <v>1.1499999999999999</v>
+        <v>4.53</v>
       </c>
       <c r="K247">
-        <v>-1.3</v>
+        <v>0.1</v>
       </c>
       <c r="L247">
         <v>0</v>
       </c>
       <c r="M247">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N247">
         <v>3</v>
@@ -11727,43 +11736,43 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B248" t="s">
         <v>10</v>
       </c>
       <c r="C248">
-        <v>775.39</v>
+        <v>848.8</v>
       </c>
       <c r="D248">
-        <v>11.6</v>
+        <v>9.83</v>
       </c>
       <c r="E248">
-        <v>11.57</v>
+        <v>9</v>
       </c>
       <c r="F248">
-        <v>11.7</v>
+        <v>11.1</v>
       </c>
       <c r="G248">
-        <v>-21.9</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="H248">
-        <v>-2.4</v>
+        <v>-12.8</v>
       </c>
       <c r="I248">
-        <v>-2150.1999999999998</v>
+        <v>259.2</v>
       </c>
       <c r="J248">
-        <v>1.1399999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="K248">
-        <v>-4.7</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="L248">
         <v>0</v>
       </c>
       <c r="M248">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N248">
         <v>4</v>
@@ -11771,43 +11780,43 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B249" t="s">
         <v>11</v>
       </c>
       <c r="C249">
-        <v>941.89</v>
+        <v>1511.26</v>
       </c>
       <c r="D249">
-        <v>13</v>
+        <v>11.3</v>
       </c>
       <c r="E249">
-        <v>13.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F249">
-        <v>12.57</v>
+        <v>13.43</v>
       </c>
       <c r="G249">
-        <v>21.1</v>
+        <v>30.9</v>
       </c>
       <c r="H249">
-        <v>-1.2</v>
+        <v>0.9</v>
       </c>
       <c r="I249">
-        <v>1349.5</v>
+        <v>126.9</v>
       </c>
       <c r="J249">
-        <v>1.56</v>
+        <v>3.03</v>
       </c>
       <c r="K249">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="L249">
         <v>0</v>
       </c>
       <c r="M249">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N249">
         <v>5</v>
@@ -11815,43 +11824,43 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B250" t="s">
         <v>12</v>
       </c>
       <c r="C250">
-        <v>6502.45</v>
+        <v>31837.55</v>
       </c>
       <c r="D250">
-        <v>11.23</v>
+        <v>13.7</v>
       </c>
       <c r="E250">
-        <v>11.93</v>
+        <v>13.7</v>
       </c>
       <c r="F250">
-        <v>10.47</v>
+        <v>13.63</v>
       </c>
       <c r="G250">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="H250">
-        <v>1.6</v>
+        <v>-0.7</v>
       </c>
       <c r="I250">
-        <v>-3116.8</v>
+        <v>243.9</v>
       </c>
       <c r="J250">
-        <v>2.19</v>
+        <v>2.83</v>
       </c>
       <c r="K250">
-        <v>0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="L250">
         <v>0</v>
       </c>
       <c r="M250">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N250">
         <v>6</v>
@@ -11859,43 +11868,43 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B251" t="s">
         <v>13</v>
       </c>
       <c r="C251">
-        <v>8509.91</v>
+        <v>27167.21</v>
       </c>
       <c r="D251">
-        <v>11.4</v>
+        <v>14.9</v>
       </c>
       <c r="E251">
-        <v>12.2</v>
+        <v>14.87</v>
       </c>
       <c r="F251">
-        <v>10.5</v>
+        <v>14.9</v>
       </c>
       <c r="G251">
-        <v>25.6</v>
+        <v>2.7</v>
       </c>
       <c r="H251">
-        <v>-0.5</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I251">
-        <v>5782.6</v>
+        <v>487</v>
       </c>
       <c r="J251">
-        <v>2.97</v>
+        <v>2.73</v>
       </c>
       <c r="K251">
-        <v>-0.2</v>
+        <v>1.6</v>
       </c>
       <c r="L251">
         <v>0</v>
       </c>
       <c r="M251">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N251">
         <v>7</v>
@@ -11903,43 +11912,43 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B252" t="s">
         <v>14</v>
       </c>
       <c r="C252">
-        <v>6395.97</v>
+        <v>14765.56</v>
       </c>
       <c r="D252">
-        <v>12.1</v>
+        <v>13.83</v>
       </c>
       <c r="E252">
-        <v>12.57</v>
+        <v>11.9</v>
       </c>
       <c r="F252">
-        <v>11.6</v>
+        <v>16.57</v>
       </c>
       <c r="G252">
-        <v>22</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H252">
-        <v>-0.2</v>
+        <v>-11.7</v>
       </c>
       <c r="I252">
-        <v>2228.3000000000002</v>
+        <v>1447.7</v>
       </c>
       <c r="J252">
-        <v>2.83</v>
+        <v>4.47</v>
       </c>
       <c r="K252">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="L252">
         <v>0</v>
       </c>
       <c r="M252">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N252">
         <v>8</v>
@@ -11947,40 +11956,40 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B253" t="s">
         <v>15</v>
       </c>
       <c r="C253">
-        <v>10577.56</v>
+        <v>698.34</v>
       </c>
       <c r="D253">
-        <v>10.47</v>
+        <v>10.33</v>
       </c>
       <c r="E253">
-        <v>12.3</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="F253">
-        <v>8.4700000000000006</v>
+        <v>10.73</v>
       </c>
       <c r="G253">
-        <v>22.3</v>
+        <v>-1.3</v>
       </c>
       <c r="H253">
-        <v>1.1000000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="J253">
-        <v>3.49</v>
+        <v>5.47</v>
       </c>
       <c r="K253">
-        <v>3.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L253">
         <v>0</v>
       </c>
       <c r="M253">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N253">
         <v>9</v>
@@ -11988,7 +11997,7 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B254" t="s">
         <v>7</v>
@@ -11997,34 +12006,34 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>9.6999999999999993</v>
+        <v>18.93</v>
       </c>
       <c r="E254">
-        <v>9.5299999999999994</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="F254">
-        <v>9.93</v>
+        <v>21.33</v>
       </c>
       <c r="G254">
-        <v>-0.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="H254">
         <v>-0.5</v>
       </c>
       <c r="I254">
-        <v>-645.29999999999995</v>
+        <v>838.5</v>
       </c>
       <c r="J254">
-        <v>2.8</v>
+        <v>-0.17</v>
       </c>
       <c r="K254">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="L254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M254">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N254">
         <v>1</v>
@@ -12032,7 +12041,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B255" t="s">
         <v>8</v>
@@ -12040,35 +12049,35 @@
       <c r="C255">
         <v>0</v>
       </c>
-      <c r="D255" s="1">
-        <v>0.3298611111111111</v>
+      <c r="D255">
+        <v>18.329999999999998</v>
       </c>
       <c r="E255">
-        <v>8.33</v>
+        <v>15.43</v>
       </c>
       <c r="F255">
-        <v>8.33</v>
+        <v>21.57</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H255">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="I255">
-        <v>-1053.4000000000001</v>
+        <v>-1373.6</v>
       </c>
       <c r="J255">
-        <v>2.83</v>
+        <v>0.25</v>
       </c>
       <c r="K255">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M255">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N255">
         <v>2</v>
@@ -12076,43 +12085,43 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B256" t="s">
         <v>9</v>
       </c>
       <c r="C256">
-        <v>61.14</v>
+        <v>732.01</v>
       </c>
       <c r="D256">
-        <v>9.23</v>
+        <v>19.07</v>
       </c>
       <c r="E256">
-        <v>9.67</v>
+        <v>15.57</v>
       </c>
       <c r="F256">
-        <v>8.6999999999999993</v>
+        <v>23</v>
       </c>
       <c r="G256">
-        <v>0.1</v>
+        <v>-6.5</v>
       </c>
       <c r="H256">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>474.1</v>
+        <v>433</v>
       </c>
       <c r="J256">
-        <v>4.53</v>
+        <v>0.41</v>
       </c>
       <c r="K256">
-        <v>0.1</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="L256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M256">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N256">
         <v>3</v>
@@ -12120,43 +12129,43 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B257" t="s">
         <v>10</v>
       </c>
       <c r="C257">
-        <v>848.8</v>
+        <v>4144.5</v>
       </c>
       <c r="D257">
-        <v>9.83</v>
+        <v>23.4</v>
       </c>
       <c r="E257">
-        <v>9</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="F257">
-        <v>11.1</v>
+        <v>28.2</v>
       </c>
       <c r="G257">
-        <v>-17.600000000000001</v>
+        <v>-28</v>
       </c>
       <c r="H257">
-        <v>-12.8</v>
+        <v>-9.9</v>
       </c>
       <c r="I257">
-        <v>259.2</v>
+        <v>-86.6</v>
       </c>
       <c r="J257">
-        <v>3.2</v>
+        <v>-0.27</v>
       </c>
       <c r="K257">
-        <v>-9.1999999999999993</v>
+        <v>-15.2</v>
       </c>
       <c r="L257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M257">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N257">
         <v>4</v>
@@ -12164,43 +12173,43 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B258" t="s">
         <v>11</v>
       </c>
       <c r="C258">
-        <v>1511.26</v>
+        <v>3284.94</v>
       </c>
       <c r="D258">
-        <v>11.3</v>
+        <v>25.77</v>
       </c>
       <c r="E258">
-        <v>9.8000000000000007</v>
+        <v>25.57</v>
       </c>
       <c r="F258">
-        <v>13.43</v>
+        <v>25.87</v>
       </c>
       <c r="G258">
-        <v>30.9</v>
+        <v>45.1</v>
       </c>
       <c r="H258">
-        <v>0.9</v>
+        <v>9.9</v>
       </c>
       <c r="I258">
-        <v>126.9</v>
+        <v>1773.2</v>
       </c>
       <c r="J258">
-        <v>3.03</v>
-      </c>
-      <c r="K258">
-        <v>7.5</v>
+        <v>0</v>
+      </c>
+      <c r="K258" s="1">
+        <v>0.70000000000000007</v>
       </c>
       <c r="L258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M258">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N258">
         <v>5</v>
@@ -12208,43 +12217,43 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B259" t="s">
         <v>12</v>
       </c>
       <c r="C259">
-        <v>31837.55</v>
+        <v>33255.17</v>
       </c>
       <c r="D259">
-        <v>13.7</v>
+        <v>23.77</v>
       </c>
       <c r="E259">
-        <v>13.7</v>
+        <v>22.87</v>
       </c>
       <c r="F259">
-        <v>13.63</v>
+        <v>24.87</v>
       </c>
       <c r="G259">
-        <v>10.1</v>
+        <v>6.5</v>
       </c>
       <c r="H259">
-        <v>-0.7</v>
+        <v>1.3</v>
       </c>
       <c r="I259">
-        <v>243.9</v>
+        <v>658.7</v>
       </c>
       <c r="J259">
-        <v>2.83</v>
+        <v>-0.17</v>
       </c>
       <c r="K259">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M259">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N259">
         <v>6</v>
@@ -12252,43 +12261,43 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B260" t="s">
         <v>13</v>
       </c>
       <c r="C260">
-        <v>27167.21</v>
+        <v>40130.519999999997</v>
       </c>
       <c r="D260">
-        <v>14.9</v>
+        <v>23.2</v>
       </c>
       <c r="E260">
-        <v>14.87</v>
+        <v>19.2</v>
       </c>
       <c r="F260">
-        <v>14.9</v>
+        <v>28.33</v>
       </c>
       <c r="G260">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H260">
-        <v>18.399999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="I260">
-        <v>487</v>
+        <v>1503.1</v>
       </c>
       <c r="J260">
-        <v>2.73</v>
+        <v>0.41</v>
       </c>
       <c r="K260">
-        <v>1.6</v>
+        <v>-3.3</v>
       </c>
       <c r="L260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M260">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N260">
         <v>7</v>
@@ -12296,43 +12305,43 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B261" t="s">
         <v>14</v>
       </c>
       <c r="C261">
-        <v>14765.56</v>
+        <v>5455.69</v>
       </c>
       <c r="D261">
-        <v>13.83</v>
+        <v>25.23</v>
       </c>
       <c r="E261">
-        <v>11.9</v>
+        <v>22.63</v>
       </c>
       <c r="F261">
-        <v>16.57</v>
+        <v>28.4</v>
       </c>
       <c r="G261">
-        <v>4.0999999999999996</v>
+        <v>-0.6</v>
       </c>
       <c r="H261">
-        <v>-11.7</v>
+        <v>-0.4</v>
       </c>
       <c r="I261">
-        <v>1447.7</v>
+        <v>-2061</v>
       </c>
       <c r="J261">
-        <v>4.47</v>
+        <v>0.77</v>
       </c>
       <c r="K261">
-        <v>1.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M261">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N261">
         <v>8</v>
@@ -12340,40 +12349,40 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B262" t="s">
         <v>15</v>
       </c>
       <c r="C262">
-        <v>698.34</v>
+        <v>18817.509999999998</v>
       </c>
       <c r="D262">
-        <v>10.33</v>
+        <v>23</v>
       </c>
       <c r="E262">
-        <v>10.029999999999999</v>
+        <v>21.07</v>
       </c>
       <c r="F262">
-        <v>10.73</v>
+        <v>25.33</v>
       </c>
       <c r="G262">
-        <v>-1.3</v>
+        <v>1.3</v>
       </c>
       <c r="H262">
-        <v>2.4</v>
+        <v>-0.7</v>
       </c>
       <c r="J262">
-        <v>5.47</v>
+        <v>1.49</v>
       </c>
       <c r="K262">
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="L262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M262">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N262">
         <v>9</v>
@@ -12381,7 +12390,7 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -12390,34 +12399,34 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>18.93</v>
+        <v>16.23</v>
       </c>
       <c r="E263">
-        <v>16.829999999999998</v>
+        <v>14.17</v>
       </c>
       <c r="F263">
-        <v>21.33</v>
+        <v>19.87</v>
       </c>
       <c r="G263">
-        <v>-4.4000000000000004</v>
+        <v>-3</v>
       </c>
       <c r="H263">
-        <v>-0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I263">
-        <v>838.5</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="J263">
-        <v>-0.17</v>
+        <v>2.85</v>
       </c>
       <c r="K263">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M263">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N263">
         <v>1</v>
@@ -12425,7 +12434,7 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B264" t="s">
         <v>8</v>
@@ -12434,34 +12443,34 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>18.329999999999998</v>
+        <v>16.63</v>
       </c>
       <c r="E264">
-        <v>15.43</v>
+        <v>14.7</v>
       </c>
       <c r="F264">
-        <v>21.57</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="G264">
-        <v>4.5999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="H264">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I264">
+        <v>41.5</v>
+      </c>
+      <c r="J264">
+        <v>2.89</v>
+      </c>
+      <c r="K264">
         <v>0.5</v>
       </c>
-      <c r="I264">
-        <v>-1373.6</v>
-      </c>
-      <c r="J264">
-        <v>0.25</v>
-      </c>
-      <c r="K264">
-        <v>0.8</v>
-      </c>
       <c r="L264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M264">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N264">
         <v>2</v>
@@ -12469,43 +12478,43 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B265" t="s">
         <v>9</v>
       </c>
       <c r="C265">
-        <v>732.01</v>
+        <v>66.61</v>
       </c>
       <c r="D265">
+        <v>16.8</v>
+      </c>
+      <c r="E265">
+        <v>15.47</v>
+      </c>
+      <c r="F265">
         <v>19.07</v>
       </c>
-      <c r="E265">
-        <v>15.57</v>
-      </c>
-      <c r="F265">
-        <v>23</v>
-      </c>
       <c r="G265">
-        <v>-6.5</v>
+        <v>-3.8</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>-12.1</v>
       </c>
       <c r="I265">
-        <v>433</v>
+        <v>91.7</v>
       </c>
       <c r="J265">
-        <v>0.41</v>
+        <v>2.76</v>
       </c>
       <c r="K265">
-        <v>-4.4000000000000004</v>
+        <v>-3.9</v>
       </c>
       <c r="L265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M265">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N265">
         <v>3</v>
@@ -12513,43 +12522,43 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B266" t="s">
         <v>10</v>
       </c>
       <c r="C266">
-        <v>4144.5</v>
+        <v>239.3</v>
       </c>
       <c r="D266">
-        <v>23.4</v>
+        <v>19.77</v>
       </c>
       <c r="E266">
-        <v>19.170000000000002</v>
+        <v>18.97</v>
       </c>
       <c r="F266">
-        <v>28.2</v>
+        <v>21.2</v>
       </c>
       <c r="G266">
-        <v>-28</v>
+        <v>-24.8</v>
       </c>
       <c r="H266">
-        <v>-9.9</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="I266">
-        <v>-86.6</v>
+        <v>52.5</v>
       </c>
       <c r="J266">
-        <v>-0.27</v>
+        <v>1.94</v>
       </c>
       <c r="K266">
-        <v>-15.2</v>
+        <v>-7.2</v>
       </c>
       <c r="L266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M266">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N266">
         <v>4</v>
@@ -12557,43 +12566,43 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B267" t="s">
         <v>11</v>
       </c>
       <c r="C267">
-        <v>3284.94</v>
+        <v>1555.07</v>
       </c>
       <c r="D267">
-        <v>25.77</v>
+        <v>19.73</v>
       </c>
       <c r="E267">
-        <v>25.57</v>
+        <v>20</v>
       </c>
       <c r="F267">
-        <v>25.87</v>
+        <v>19.3</v>
       </c>
       <c r="G267">
-        <v>45.1</v>
+        <v>50.2</v>
       </c>
       <c r="H267">
-        <v>9.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I267">
-        <v>1773.2</v>
+        <v>56.5</v>
       </c>
       <c r="J267">
-        <v>0</v>
-      </c>
-      <c r="K267" s="1">
-        <v>0.70000000000000007</v>
+        <v>1.53</v>
+      </c>
+      <c r="K267">
+        <v>9.1</v>
       </c>
       <c r="L267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M267">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N267">
         <v>5</v>
@@ -12601,43 +12610,43 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B268" t="s">
         <v>12</v>
       </c>
       <c r="C268">
-        <v>33255.17</v>
+        <v>48531.64</v>
       </c>
       <c r="D268">
-        <v>23.77</v>
+        <v>20.37</v>
       </c>
       <c r="E268">
-        <v>22.87</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="F268">
-        <v>24.87</v>
+        <v>23.4</v>
       </c>
       <c r="G268">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="H268">
-        <v>1.3</v>
+        <v>-2.5</v>
       </c>
       <c r="I268">
-        <v>658.7</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="J268">
-        <v>-0.17</v>
+        <v>1.53</v>
       </c>
       <c r="K268">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M268">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N268">
         <v>6</v>
@@ -12645,43 +12654,43 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B269" t="s">
         <v>13</v>
       </c>
       <c r="C269">
-        <v>40130.519999999997</v>
+        <v>79510.28</v>
       </c>
       <c r="D269">
-        <v>23.2</v>
+        <v>23.23</v>
       </c>
       <c r="E269">
-        <v>19.2</v>
+        <v>18.27</v>
       </c>
       <c r="F269">
-        <v>28.33</v>
+        <v>30.93</v>
       </c>
       <c r="G269">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="H269">
-        <v>2.5</v>
+        <v>-6.5</v>
       </c>
       <c r="I269">
-        <v>1503.1</v>
+        <v>62.5</v>
       </c>
       <c r="J269">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="K269">
-        <v>-3.3</v>
+        <v>-1.4</v>
       </c>
       <c r="L269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M269">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N269">
         <v>7</v>
@@ -12689,43 +12698,43 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B270" t="s">
         <v>14</v>
       </c>
       <c r="C270">
-        <v>5455.69</v>
+        <v>12309.54</v>
       </c>
       <c r="D270">
-        <v>25.23</v>
+        <v>21.3</v>
       </c>
       <c r="E270">
-        <v>22.63</v>
+        <v>20.43</v>
       </c>
       <c r="F270">
-        <v>28.4</v>
+        <v>22.7</v>
       </c>
       <c r="G270">
-        <v>-0.6</v>
+        <v>-3.3</v>
       </c>
       <c r="H270">
-        <v>-0.4</v>
+        <v>7</v>
       </c>
       <c r="I270">
-        <v>-2061</v>
+        <v>-1.5</v>
       </c>
       <c r="J270">
-        <v>0.77</v>
+        <v>2.23</v>
       </c>
       <c r="K270">
-        <v>4.4000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="L270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M270">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N270">
         <v>8</v>
@@ -12733,40 +12742,40 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B271" t="s">
         <v>15</v>
       </c>
       <c r="C271">
-        <v>18817.509999999998</v>
+        <v>5071.32</v>
       </c>
       <c r="D271">
-        <v>23</v>
+        <v>19.2</v>
       </c>
       <c r="E271">
-        <v>21.07</v>
+        <v>20.23</v>
       </c>
       <c r="F271">
-        <v>25.33</v>
+        <v>27.5</v>
       </c>
       <c r="G271">
-        <v>1.3</v>
+        <v>-3.1</v>
       </c>
       <c r="H271">
-        <v>-0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J271">
-        <v>1.49</v>
+        <v>3.88</v>
       </c>
       <c r="K271">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="L271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M271">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N271">
         <v>9</v>
@@ -12774,7 +12783,7 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B272" t="s">
         <v>7</v>
@@ -12783,34 +12792,34 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>16.23</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E272">
-        <v>14.17</v>
+        <v>7.7</v>
       </c>
       <c r="F272">
-        <v>19.87</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G272">
-        <v>-3</v>
+        <v>0.2</v>
       </c>
       <c r="H272">
-        <v>0.6</v>
+        <v>-1.6</v>
       </c>
       <c r="I272">
-        <v>40.299999999999997</v>
+        <v>155.19999999999999</v>
       </c>
       <c r="J272">
-        <v>2.85</v>
+        <v>1.99</v>
       </c>
       <c r="K272">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="L272">
         <v>0</v>
       </c>
       <c r="M272">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N272">
         <v>1</v>
@@ -12818,7 +12827,7 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
@@ -12827,34 +12836,34 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>16.63</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E273">
-        <v>14.7</v>
+        <v>8.1</v>
       </c>
       <c r="F273">
-        <v>19.899999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G273">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H273">
-        <v>4.9000000000000004</v>
+        <v>-3.2</v>
       </c>
       <c r="I273">
-        <v>41.5</v>
-      </c>
-      <c r="J273">
-        <v>2.89</v>
+        <v>236.3</v>
+      </c>
+      <c r="J273" s="1">
+        <v>0.54999999999999993</v>
       </c>
       <c r="K273">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="L273">
         <v>0</v>
       </c>
       <c r="M273">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N273">
         <v>2</v>
@@ -12862,43 +12871,43 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B274" t="s">
         <v>9</v>
       </c>
       <c r="C274">
-        <v>66.61</v>
+        <v>385.81</v>
       </c>
       <c r="D274">
-        <v>16.8</v>
+        <v>10.4</v>
       </c>
       <c r="E274">
-        <v>15.47</v>
+        <v>9.5</v>
       </c>
       <c r="F274">
-        <v>19.07</v>
+        <v>11.5</v>
       </c>
       <c r="G274">
-        <v>-3.8</v>
+        <v>0</v>
       </c>
       <c r="H274">
-        <v>-12.1</v>
+        <v>-2</v>
       </c>
       <c r="I274">
-        <v>91.7</v>
+        <v>192.6</v>
       </c>
       <c r="J274">
-        <v>2.76</v>
+        <v>1.5</v>
       </c>
       <c r="K274">
-        <v>-3.9</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="L274">
         <v>0</v>
       </c>
       <c r="M274">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N274">
         <v>3</v>
@@ -12906,43 +12915,43 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B275" t="s">
         <v>10</v>
       </c>
       <c r="C275">
-        <v>239.3</v>
+        <v>383.89</v>
       </c>
       <c r="D275">
-        <v>19.77</v>
+        <v>16.5</v>
       </c>
       <c r="E275">
-        <v>18.97</v>
+        <v>15.8</v>
       </c>
       <c r="F275">
-        <v>21.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G275">
-        <v>-24.8</v>
+        <v>-19.3</v>
       </c>
       <c r="H275">
-        <v>-8.3000000000000007</v>
+        <v>-11.6</v>
       </c>
       <c r="I275">
-        <v>52.5</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="J275">
-        <v>1.94</v>
+        <v>-0.92</v>
       </c>
       <c r="K275">
-        <v>-7.2</v>
+        <v>-9.4</v>
       </c>
       <c r="L275">
         <v>0</v>
       </c>
       <c r="M275">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N275">
         <v>4</v>
@@ -12950,43 +12959,43 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B276" t="s">
         <v>11</v>
       </c>
       <c r="C276">
-        <v>1555.07</v>
+        <v>1967.55</v>
       </c>
       <c r="D276">
-        <v>19.73</v>
+        <v>15.9</v>
       </c>
       <c r="E276">
-        <v>20</v>
+        <v>13.8</v>
       </c>
       <c r="F276">
-        <v>19.3</v>
+        <v>18.8</v>
       </c>
       <c r="G276">
-        <v>50.2</v>
+        <v>24.3</v>
       </c>
       <c r="H276">
-        <v>8.1999999999999993</v>
+        <v>12.6</v>
       </c>
       <c r="I276">
-        <v>56.5</v>
+        <v>-210.9</v>
       </c>
       <c r="J276">
-        <v>1.53</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K276">
-        <v>9.1</v>
+        <v>11.9</v>
       </c>
       <c r="L276">
         <v>0</v>
       </c>
       <c r="M276">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N276">
         <v>5</v>
@@ -12994,43 +13003,43 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B277" t="s">
         <v>12</v>
       </c>
       <c r="C277">
-        <v>48531.64</v>
+        <v>56025.74</v>
       </c>
       <c r="D277">
-        <v>20.37</v>
+        <v>15.1</v>
       </c>
       <c r="E277">
-        <v>18.670000000000002</v>
+        <v>13.3</v>
       </c>
       <c r="F277">
-        <v>23.4</v>
+        <v>18</v>
       </c>
       <c r="G277">
-        <v>3.7</v>
+        <v>8.1</v>
       </c>
       <c r="H277">
-        <v>-2.5</v>
+        <v>0.1</v>
       </c>
       <c r="I277">
-        <v>33.799999999999997</v>
+        <v>462.5</v>
       </c>
       <c r="J277">
-        <v>1.53</v>
+        <v>-0.7</v>
       </c>
       <c r="K277">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="L277">
         <v>0</v>
       </c>
       <c r="M277">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N277">
         <v>6</v>
@@ -13038,43 +13047,43 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B278" t="s">
         <v>13</v>
       </c>
       <c r="C278">
-        <v>79510.28</v>
+        <v>44955.49</v>
       </c>
       <c r="D278">
-        <v>23.23</v>
+        <v>14.3</v>
       </c>
       <c r="E278">
-        <v>18.27</v>
+        <v>12.9</v>
       </c>
       <c r="F278">
-        <v>30.93</v>
+        <v>15.9</v>
       </c>
       <c r="G278">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="H278">
-        <v>-6.5</v>
+        <v>7.9</v>
       </c>
       <c r="I278">
-        <v>62.5</v>
+        <v>161.5</v>
       </c>
       <c r="J278">
-        <v>0.98</v>
+        <v>-0.54</v>
       </c>
       <c r="K278">
-        <v>-1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L278">
         <v>0</v>
       </c>
       <c r="M278">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N278">
         <v>7</v>
@@ -13082,43 +13091,43 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B279" t="s">
         <v>14</v>
       </c>
       <c r="C279">
-        <v>12309.54</v>
+        <v>20053.18</v>
       </c>
       <c r="D279">
-        <v>21.3</v>
+        <v>14.7</v>
       </c>
       <c r="E279">
-        <v>20.43</v>
+        <v>13.4</v>
       </c>
       <c r="F279">
-        <v>22.7</v>
+        <v>16.3</v>
       </c>
       <c r="G279">
-        <v>-3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H279">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I279">
-        <v>-1.5</v>
+        <v>353.7</v>
       </c>
       <c r="J279">
-        <v>2.23</v>
+        <v>1.87</v>
       </c>
       <c r="K279">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="L279">
         <v>0</v>
       </c>
       <c r="M279">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N279">
         <v>8</v>
@@ -13126,40 +13135,40 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B280" t="s">
         <v>15</v>
       </c>
       <c r="C280">
-        <v>5071.32</v>
+        <v>16859.39</v>
       </c>
       <c r="D280">
-        <v>19.2</v>
+        <v>12.8</v>
       </c>
       <c r="E280">
-        <v>20.23</v>
+        <v>12.3</v>
       </c>
       <c r="F280">
-        <v>27.5</v>
+        <v>13.4</v>
       </c>
       <c r="G280">
-        <v>-3.1</v>
-      </c>
-      <c r="H280">
-        <v>0.4</v>
+        <v>5.3</v>
+      </c>
+      <c r="H280" s="1">
+        <v>8.6111111111111124E-2</v>
       </c>
       <c r="J280">
-        <v>3.88</v>
+        <v>2.17</v>
       </c>
       <c r="K280">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="L280">
         <v>0</v>
       </c>
       <c r="M280">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N280">
         <v>9</v>
@@ -13167,7 +13176,7 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
@@ -13176,34 +13185,31 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>8.1999999999999993</v>
+        <v>10.26</v>
       </c>
       <c r="E281">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="F281">
-        <v>8.8000000000000007</v>
+        <v>10.45</v>
       </c>
       <c r="G281">
-        <v>0.2</v>
+        <v>-1.5</v>
       </c>
       <c r="H281">
-        <v>-1.6</v>
-      </c>
-      <c r="I281">
-        <v>155.19999999999999</v>
+        <v>-1.4</v>
       </c>
       <c r="J281">
-        <v>1.99</v>
+        <v>0.04</v>
       </c>
       <c r="K281">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="L281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M281">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N281">
         <v>1</v>
@@ -13211,7 +13217,7 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -13220,34 +13226,31 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>8.6999999999999993</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="E282">
-        <v>8.1</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="F282">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G282">
-        <v>1.4</v>
+        <v>-0.8</v>
       </c>
       <c r="H282">
-        <v>-3.2</v>
-      </c>
-      <c r="I282">
-        <v>236.3</v>
-      </c>
-      <c r="J282" s="1">
-        <v>0.54999999999999993</v>
+        <v>3.7</v>
+      </c>
+      <c r="J282">
+        <v>0.3</v>
       </c>
       <c r="K282">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M282">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N282">
         <v>2</v>
@@ -13255,43 +13258,43 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B283" t="s">
         <v>9</v>
       </c>
       <c r="C283">
-        <v>385.81</v>
+        <v>186.72</v>
       </c>
       <c r="D283">
-        <v>10.4</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="E283">
-        <v>9.5</v>
+        <v>10.18</v>
       </c>
       <c r="F283">
-        <v>11.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H283">
-        <v>-2</v>
+        <v>0.3</v>
       </c>
       <c r="I283">
-        <v>192.6</v>
+        <v>7781.3</v>
       </c>
       <c r="J283">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="K283">
-        <v>-4.5999999999999996</v>
+        <v>-1.3</v>
       </c>
       <c r="L283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M283">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N283">
         <v>3</v>
@@ -13299,43 +13302,43 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B284" t="s">
         <v>10</v>
       </c>
       <c r="C284">
-        <v>383.89</v>
+        <v>63.68</v>
       </c>
       <c r="D284">
-        <v>16.5</v>
+        <v>10.94</v>
       </c>
       <c r="E284">
-        <v>15.8</v>
+        <v>11.24</v>
       </c>
       <c r="F284">
-        <v>17.399999999999999</v>
+        <v>10.73</v>
       </c>
       <c r="G284">
         <v>-19.3</v>
       </c>
       <c r="H284">
-        <v>-11.6</v>
+        <v>-0.9</v>
       </c>
       <c r="I284">
-        <v>64.099999999999994</v>
+        <v>3524.3</v>
       </c>
       <c r="J284">
-        <v>-0.92</v>
+        <v>-0.09</v>
       </c>
       <c r="K284">
-        <v>-9.4</v>
+        <v>-3.2</v>
       </c>
       <c r="L284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M284">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N284">
         <v>4</v>
@@ -13343,43 +13346,43 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B285" t="s">
         <v>11</v>
       </c>
       <c r="C285">
-        <v>1967.55</v>
+        <v>215.16</v>
       </c>
       <c r="D285">
-        <v>15.9</v>
+        <v>10.83</v>
       </c>
       <c r="E285">
-        <v>13.8</v>
+        <v>11.61</v>
       </c>
       <c r="F285">
+        <v>10.27</v>
+      </c>
+      <c r="G285">
         <v>18.8</v>
       </c>
-      <c r="G285">
-        <v>24.3</v>
-      </c>
       <c r="H285">
-        <v>12.6</v>
+        <v>-0.1</v>
       </c>
       <c r="I285">
-        <v>-210.9</v>
+        <v>10227.1</v>
       </c>
       <c r="J285">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.63</v>
       </c>
       <c r="K285">
-        <v>11.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M285">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N285">
         <v>5</v>
@@ -13387,43 +13390,43 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B286" t="s">
         <v>12</v>
       </c>
       <c r="C286">
-        <v>56025.74</v>
+        <v>738.33</v>
       </c>
       <c r="D286">
-        <v>15.1</v>
+        <v>10.68</v>
       </c>
       <c r="E286">
-        <v>13.3</v>
+        <v>11.31</v>
       </c>
       <c r="F286">
-        <v>18</v>
+        <v>10.25</v>
       </c>
       <c r="G286">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="H286">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="I286">
-        <v>462.5</v>
+        <v>10947</v>
       </c>
       <c r="J286">
-        <v>-0.7</v>
+        <v>0.42</v>
       </c>
       <c r="K286">
-        <v>-0.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M286">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N286">
         <v>6</v>
@@ -13431,43 +13434,43 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B287" t="s">
         <v>13</v>
       </c>
       <c r="C287">
-        <v>44955.49</v>
+        <v>816.1</v>
       </c>
       <c r="D287">
-        <v>14.3</v>
+        <v>10.36</v>
       </c>
       <c r="E287">
-        <v>12.9</v>
+        <v>10.91</v>
       </c>
       <c r="F287">
-        <v>15.9</v>
+        <v>9.98</v>
       </c>
       <c r="G287">
-        <v>7.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H287">
-        <v>7.9</v>
+        <v>2.5</v>
       </c>
       <c r="I287">
-        <v>161.5</v>
+        <v>9749.7000000000007</v>
       </c>
       <c r="J287">
-        <v>-0.54</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K287">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M287">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N287">
         <v>7</v>
@@ -13475,43 +13478,43 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B288" t="s">
         <v>14</v>
       </c>
       <c r="C288">
-        <v>20053.18</v>
+        <v>1039.31</v>
       </c>
       <c r="D288">
-        <v>14.7</v>
+        <v>9.06</v>
       </c>
       <c r="E288">
-        <v>13.4</v>
+        <v>10.65</v>
       </c>
       <c r="F288">
-        <v>16.3</v>
+        <v>7.92</v>
       </c>
       <c r="G288">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H288">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="I288">
-        <v>353.7</v>
+        <v>11838.5</v>
       </c>
       <c r="J288">
-        <v>1.87</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="K288">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="L288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M288">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N288">
         <v>8</v>
@@ -13519,40 +13522,40 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B289" t="s">
         <v>15</v>
       </c>
       <c r="C289">
-        <v>16859.39</v>
+        <v>3009.04</v>
       </c>
       <c r="D289">
-        <v>12.8</v>
+        <v>6.94</v>
       </c>
       <c r="E289">
-        <v>12.3</v>
+        <v>7.93</v>
       </c>
       <c r="F289">
-        <v>13.4</v>
+        <v>6.28</v>
       </c>
       <c r="G289">
-        <v>5.3</v>
-      </c>
-      <c r="H289" s="1">
-        <v>8.6111111111111124E-2</v>
+        <v>5.7</v>
+      </c>
+      <c r="H289">
+        <v>-2.2000000000000002</v>
       </c>
       <c r="J289">
-        <v>2.17</v>
+        <v>2.58</v>
       </c>
       <c r="K289">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="L289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M289">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N289">
         <v>9</v>
@@ -13560,7 +13563,7 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -13604,7 +13607,7 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
@@ -13648,7 +13651,7 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B292" t="s">
         <v>9</v>
@@ -13692,7 +13695,7 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B293" t="s">
         <v>10</v>
@@ -13736,7 +13739,7 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B294" t="s">
         <v>11</v>
@@ -13780,7 +13783,7 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B295" t="s">
         <v>12</v>
@@ -13824,7 +13827,7 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B296" t="s">
         <v>13</v>
@@ -13868,7 +13871,7 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B297" t="s">
         <v>14</v>
@@ -13912,7 +13915,7 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B298" t="s">
         <v>15</v>
@@ -13953,7 +13956,7 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -13997,7 +14000,7 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B300" t="s">
         <v>8</v>
@@ -14041,7 +14044,7 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B301" t="s">
         <v>9</v>
@@ -14085,7 +14088,7 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B302" t="s">
         <v>10</v>
@@ -14129,7 +14132,7 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B303" t="s">
         <v>11</v>
@@ -14173,7 +14176,7 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B304" t="s">
         <v>12</v>
@@ -14217,7 +14220,7 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B305" t="s">
         <v>13</v>
@@ -14261,7 +14264,7 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B306" t="s">
         <v>14</v>
@@ -14305,7 +14308,7 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B307" t="s">
         <v>15</v>
@@ -14346,7 +14349,7 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B308" t="s">
         <v>7</v>
@@ -14390,7 +14393,7 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B309" t="s">
         <v>8</v>
@@ -14434,7 +14437,7 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B310" t="s">
         <v>9</v>
@@ -14478,7 +14481,7 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B311" t="s">
         <v>10</v>
@@ -14522,7 +14525,7 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B312" t="s">
         <v>11</v>
@@ -14566,7 +14569,7 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B313" t="s">
         <v>12</v>
@@ -14610,7 +14613,7 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B314" t="s">
         <v>13</v>
@@ -14654,7 +14657,7 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B315" t="s">
         <v>14</v>
@@ -14698,7 +14701,7 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B316" t="s">
         <v>15</v>
@@ -14739,7 +14742,7 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -14783,7 +14786,7 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B318" t="s">
         <v>8</v>
@@ -14827,7 +14830,7 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B319" t="s">
         <v>9</v>
@@ -14871,7 +14874,7 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B320" t="s">
         <v>10</v>
@@ -14915,7 +14918,7 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B321" t="s">
         <v>11</v>
@@ -14959,7 +14962,7 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B322" t="s">
         <v>12</v>
@@ -15003,7 +15006,7 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B323" t="s">
         <v>13</v>
@@ -15047,7 +15050,7 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B324" t="s">
         <v>14</v>
@@ -15091,7 +15094,7 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B325" t="s">
         <v>15</v>
@@ -15132,7 +15135,7 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -15176,7 +15179,7 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B327" t="s">
         <v>8</v>
@@ -15220,7 +15223,7 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B328" t="s">
         <v>9</v>
@@ -15264,7 +15267,7 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B329" t="s">
         <v>10</v>
@@ -15308,7 +15311,7 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B330" t="s">
         <v>11</v>
@@ -15352,7 +15355,7 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B331" t="s">
         <v>12</v>
@@ -15396,7 +15399,7 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B332" t="s">
         <v>13</v>
@@ -15440,7 +15443,7 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B333" t="s">
         <v>14</v>
@@ -15484,7 +15487,7 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B334" t="s">
         <v>15</v>
@@ -15525,7 +15528,7 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B335" t="s">
         <v>7</v>
@@ -15569,7 +15572,7 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B336" t="s">
         <v>8</v>
@@ -15613,7 +15616,7 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B337" t="s">
         <v>9</v>
@@ -15657,7 +15660,7 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B338" t="s">
         <v>10</v>
@@ -15701,7 +15704,7 @@
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B339" t="s">
         <v>11</v>
@@ -15745,7 +15748,7 @@
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B340" t="s">
         <v>12</v>
@@ -15789,7 +15792,7 @@
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B341" t="s">
         <v>13</v>
@@ -15833,7 +15836,7 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B342" t="s">
         <v>14</v>
@@ -15877,7 +15880,7 @@
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B343" t="s">
         <v>15</v>
